--- a/file/table/TSIG_DistanciaEstaciones.xlsx
+++ b/file/table/TSIG_DistanciaEstaciones.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29721"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pruebacorreoescuelaingeduco-my.sharepoint.com/personal/william_aguilar_escuelaing_edu_co/Documents/UECIJG.ClassSourcecode/TSIG/QuizFinalTercio1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.TSIG\file\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{E86E123B-6181-4A80-A3EA-8946630F3422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4283D6C2-83D8-479C-9E68-7E749A4388D8}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F2966-4896-4F59-93D7-F89C178DD9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{BFFEDD32-5511-4671-8C45-CA8CCC42B8EF}"/>
+    <workbookView xWindow="-83" yWindow="0" windowWidth="17550" windowHeight="15563" xr2:uid="{19276741-97E1-4F04-AE72-7C7189CE5845}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="DistanciaEstaciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="DeltaX">DistanciaEstaciones!$C$6</definedName>
+    <definedName name="DeltaY">DistanciaEstaciones!$D$6</definedName>
+    <definedName name="DeltaZ">DistanciaEstaciones!$E$6</definedName>
+    <definedName name="Distancia2D">DistanciaEstaciones!$D$11</definedName>
+    <definedName name="Distancia3D">DistanciaEstaciones!$D$12</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,39 +44,247 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>CAMPO CAPOTE [23125040]</t>
-  </si>
-  <si>
-    <t>MELITOSA LA [23140060]</t>
-  </si>
-  <si>
-    <t>PUENTE FERROCARRIL OPÓN [23147020]</t>
-  </si>
-  <si>
-    <t>CX</t>
-  </si>
-  <si>
-    <t>CY</t>
-  </si>
-  <si>
-    <t>Punto solicitado</t>
-  </si>
-  <si>
-    <t>Distancia</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+  <si>
+    <t>Estación</t>
+  </si>
+  <si>
+    <t>COORD_Y_m</t>
+  </si>
+  <si>
+    <t>COORD_X_m</t>
+  </si>
+  <si>
+    <t>Cálculo de distancias entre dos estaciones</t>
+  </si>
+  <si>
+    <t>COORD_Z_m</t>
+  </si>
+  <si>
+    <t>ESTACIONID</t>
+  </si>
+  <si>
+    <t>wkt_geom</t>
+  </si>
+  <si>
+    <t>Activar</t>
+  </si>
+  <si>
+    <t>Estatal</t>
+  </si>
+  <si>
+    <t>Virtual</t>
+  </si>
+  <si>
+    <t>ESTACION</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>CLASE</t>
+  </si>
+  <si>
+    <t>ESTADO</t>
+  </si>
+  <si>
+    <t>FUENTE</t>
+  </si>
+  <si>
+    <t>DEPARTAMEN</t>
+  </si>
+  <si>
+    <t>MUNICIPIO</t>
+  </si>
+  <si>
+    <t>CORRIENTE</t>
+  </si>
+  <si>
+    <t>FECHA_INST</t>
+  </si>
+  <si>
+    <t>FECHA_SUSP</t>
+  </si>
+  <si>
+    <t>LAT_DD_N</t>
+  </si>
+  <si>
+    <t>LON_DD_O</t>
+  </si>
+  <si>
+    <t>COTA_MDT_M</t>
+  </si>
+  <si>
+    <t>AREAH</t>
+  </si>
+  <si>
+    <t>ZONAH</t>
+  </si>
+  <si>
+    <t>SUBZONAH</t>
+  </si>
+  <si>
+    <t>Point (-74.46241700000000208 5.48508300000000037)</t>
+  </si>
+  <si>
+    <t>SAN PABLO [23060160]</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>ACT</t>
+  </si>
+  <si>
+    <t>IDEAM</t>
+  </si>
+  <si>
+    <t>Cundinamarca</t>
+  </si>
+  <si>
+    <t>Caparrapí</t>
+  </si>
+  <si>
+    <t>Gachaneca</t>
+  </si>
+  <si>
+    <t>Magdalena Cauca</t>
+  </si>
+  <si>
+    <t>Medio Magdalena</t>
+  </si>
+  <si>
+    <t>Río Negro</t>
+  </si>
+  <si>
+    <t>Point (-74.5833329999999961 5.5)</t>
+  </si>
+  <si>
+    <t>CAPTACION-BOCATOMA [23067010]</t>
+  </si>
+  <si>
+    <t>LM</t>
+  </si>
+  <si>
+    <t>SUS</t>
+  </si>
+  <si>
+    <t>Puerto Salgar</t>
+  </si>
+  <si>
+    <t>Negro</t>
+  </si>
+  <si>
+    <t>v.20260124</t>
+  </si>
+  <si>
+    <t>Δ</t>
+  </si>
+  <si>
+    <t>Centroide</t>
+  </si>
+  <si>
+    <t>Distancia 2D (m)</t>
+  </si>
+  <si>
+    <t>Distancia 3D trigonométrica (m)</t>
+  </si>
+  <si>
+    <t>Distancia 3D Pitágoras (m)</t>
+  </si>
+  <si>
+    <t>Parámetro</t>
+  </si>
+  <si>
+    <t>Valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =(DeltaX^2+DeltaY^2)^0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =(Distancia2D^2+DeltaZ^2)^0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =ABS(ATAN(DeltaZ/Distancia2D))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =ABS(ATAN(DeltaZ/Distancia2D)*180/PI())</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =ABS(DeltaZ/SIN(D13))</t>
+  </si>
+  <si>
+    <t>Formulación</t>
+  </si>
+  <si>
+    <t>Cálculo de longitud, dirección e inclinación</t>
+  </si>
+  <si>
+    <t>Inclinación 3D (rad)</t>
+  </si>
+  <si>
+    <t>Inclinación 3D (°)</t>
+  </si>
+  <si>
+    <t>Dirección 2D (rad)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  =ATAN(DeltaY/DeltaX)</t>
+  </si>
+  <si>
+    <t>CX (m)</t>
+  </si>
+  <si>
+    <t>CY (m)</t>
+  </si>
+  <si>
+    <t>CZ (m)</t>
+  </si>
+  <si>
+    <t>Dirección 2D (°)</t>
+  </si>
+  <si>
+    <t>Dirección asumiendo que el grado decimal cero se encuentra al este.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> =ATAN(DeltaY/DeltaX)*180/PI()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,16 +294,34 @@
       <name val="Segoe UI Light"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Segoe UI Light"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -94,13 +329,298 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,10 +638,65 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1006387</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156219</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6590</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>186435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Graphic 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFE99FAD-11CB-49C6-B65F-849C61FE7D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4422249" y="156219"/>
+          <a:ext cx="1000453" cy="240423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -129,39 +704,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +788,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -265,7 +840,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -324,6 +899,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -332,13 +914,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -403,122 +978,553 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66DEAD39-80D0-4750-BB79-68D1441E3298}">
-  <dimension ref="B2:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BDCAB2-6DBB-443A-9EF8-7543B8F1FE8D}">
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.06640625" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="2.59765625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.19921875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="12.06640625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.86328125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="28" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.1328125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="E1" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B3" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B4" s="13">
+        <v>23060160</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1098308.88197</v>
+      </c>
+      <c r="D4" s="8">
+        <v>957346.69072399999</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B5" s="25">
+        <v>23067010</v>
+      </c>
+      <c r="C5" s="26">
+        <v>1099968.48985</v>
+      </c>
+      <c r="D5" s="26">
+        <v>943948.59801700001</v>
+      </c>
+      <c r="E5" s="27">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B6" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="11">
+        <f>C5-C4</f>
+        <v>1659.607880000025</v>
+      </c>
+      <c r="D6" s="11">
+        <f t="shared" ref="D6:E6" si="0">D5-D4</f>
+        <v>-13398.092706999974</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>-909</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="17" cm="1">
+        <f t="array" ref="C7">(DeltaX/2)+C4</f>
+        <v>1099138.68591</v>
+      </c>
+      <c r="D7" s="17">
+        <f>(DeltaY/2)+D4</f>
+        <v>950647.6443705</v>
+      </c>
+      <c r="E7" s="18">
+        <f>(DeltaZ/2)+E4</f>
+        <v>745.5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B9" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="9">
+        <f>(DeltaX^2+DeltaY^2)^0.5</f>
+        <v>13500.488380081813</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="9">
+        <f>(Distancia2D^2+DeltaZ^2)^0.5</f>
+        <v>13531.055668377248</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9">
+        <f>ATAN(DeltaY/DeltaX)</f>
+        <v>-1.4475551210427495</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B14" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9">
+        <f>ATAN(DeltaY/DeltaX)*180/PI()</f>
+        <v>-82.938799048298577</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="9">
+        <f>ABS(ATAN(DeltaZ/Distancia2D))</f>
+        <v>6.722942633598758E-2</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="9">
+        <f>ABS(ATAN(DeltaZ/Distancia2D)*180/PI())</f>
+        <v>3.8519623881377543</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="20">
+        <f>ABS(DeltaZ/SIN(D15))</f>
+        <v>13531.05566837725</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A467452E-9DB9-4B6A-B4BF-ACF2268D9B4D}">
+  <dimension ref="A2:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.06640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="11.19921875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.3984375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:24" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="99.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>23060160</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N3" s="3">
+        <v>27287</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>1098308.88197</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>957346.69072399999</v>
+      </c>
+      <c r="R3" s="2">
+        <v>1200</v>
+      </c>
+      <c r="S3" s="2">
+        <v>5.4850830000000004</v>
+      </c>
+      <c r="T3" s="2">
+        <v>-74.462417000000002</v>
+      </c>
+      <c r="U3" s="2">
+        <v>1153</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>23067010</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="3">
+        <v>22021</v>
+      </c>
+      <c r="O4" s="3">
+        <v>27103</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1099968.48985</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>943948.59801700001</v>
+      </c>
+      <c r="R4" s="2">
+        <v>291</v>
+      </c>
+      <c r="S4" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="T4" s="2">
+        <v>-74.583332999999996</v>
+      </c>
+      <c r="U4" s="2">
+        <v>375</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF1F98EA-2567-4F71-99FA-C333BD6B7744}">
+  <dimension ref="B2:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.53125" defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="13.53125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B3" s="1" t="s">
-        <v>5</v>
+      <c r="B3" s="1">
+        <v>23060160</v>
       </c>
       <c r="C3" s="1">
-        <v>4902232</v>
+        <v>1098308.88197</v>
       </c>
       <c r="D3" s="1">
-        <v>2297439</v>
+        <v>957346.69072399999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1200</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
+      <c r="B4" s="1">
+        <v>23067010</v>
       </c>
       <c r="C4" s="1">
-        <v>4898279.2967999997</v>
+        <v>1099968.48985</v>
       </c>
       <c r="D4" s="1">
-        <v>2289162.6655999999</v>
+        <v>943948.59801700001</v>
       </c>
       <c r="E4" s="1">
-        <f>(($C$3-C4)^2+($D$3-D4)^2)^0.5</f>
-        <v>9171.7813802945129</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
-        <v>4911604.5745999999</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2291042.8646</v>
-      </c>
-      <c r="E5" s="1">
-        <f>(($C$3-C5)^2+($D$3-D5)^2)^0.5</f>
-        <v>11347.057005571862</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="B6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>4896716.1769000003</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2306571.8051</v>
-      </c>
-      <c r="E6" s="1">
-        <f>(($C$3-C6)^2+($D$3-D6)^2)^0.5</f>
-        <v>10669.228344405989</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.6">
-      <c r="E7" s="1">
-        <f>AVERAGE(E4:E6)</f>
-        <v>10396.02224342412</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/file/table/TSIG_DistanciaEstaciones.xlsx
+++ b/file/table/TSIG_DistanciaEstaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.TSIG\file\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8F2966-4896-4F59-93D7-F89C178DD9E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA31BEF-9B4E-4692-B2C2-7C24059E7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-83" yWindow="0" windowWidth="17550" windowHeight="15563" xr2:uid="{19276741-97E1-4F04-AE72-7C7189CE5845}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{19276741-97E1-4F04-AE72-7C7189CE5845}"/>
   </bookViews>
   <sheets>
     <sheet name="DistanciaEstaciones" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <definedName name="DeltaX">DistanciaEstaciones!$C$6</definedName>
     <definedName name="DeltaY">DistanciaEstaciones!$D$6</definedName>
     <definedName name="DeltaZ">DistanciaEstaciones!$E$6</definedName>
-    <definedName name="Distancia2D">DistanciaEstaciones!$D$11</definedName>
-    <definedName name="Distancia3D">DistanciaEstaciones!$D$12</definedName>
+    <definedName name="Distancia2D">DistanciaEstaciones!$D$12</definedName>
+    <definedName name="Distancia3D">DistanciaEstaciones!$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>Estación</t>
   </si>
@@ -267,10 +267,13 @@
     <t>Dirección 2D (°)</t>
   </si>
   <si>
-    <t>Dirección asumiendo que el grado decimal cero se encuentra al este.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> =ATAN(DeltaY/DeltaX)*180/PI()</t>
+  </si>
+  <si>
+    <t>Centroide Google maps:</t>
+  </si>
+  <si>
+    <t>Dirección con respecto a la horizontal de la estación más al norte.</t>
   </si>
 </sst>
 </file>
@@ -522,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -619,6 +622,9 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -643,15 +649,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1006387</xdr:colOff>
+      <xdr:colOff>1016240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>156219</xdr:rowOff>
+      <xdr:rowOff>146366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6590</xdr:colOff>
+      <xdr:colOff>16443</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>186435</xdr:rowOff>
+      <xdr:rowOff>176582</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -680,7 +686,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4422249" y="156219"/>
+          <a:off x="4432102" y="146366"/>
           <a:ext cx="1000453" cy="240423"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -990,10 +996,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7BDCAB2-6DBB-443A-9EF8-7543B8F1FE8D}">
-  <dimension ref="B1:E18"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1035,10 +1041,10 @@
         <v>23060160</v>
       </c>
       <c r="C4" s="8">
+        <v>957346.69072399999</v>
+      </c>
+      <c r="D4" s="8">
         <v>1098308.88197</v>
-      </c>
-      <c r="D4" s="8">
-        <v>957346.69072399999</v>
       </c>
       <c r="E4" s="14">
         <v>1200</v>
@@ -1049,10 +1055,10 @@
         <v>23067010</v>
       </c>
       <c r="C5" s="26">
+        <v>943948.59801700001</v>
+      </c>
+      <c r="D5" s="26">
         <v>1099968.48985</v>
-      </c>
-      <c r="D5" s="26">
-        <v>943948.59801700001</v>
       </c>
       <c r="E5" s="27">
         <v>291</v>
@@ -1064,11 +1070,11 @@
       </c>
       <c r="C6" s="11">
         <f>C5-C4</f>
-        <v>1659.607880000025</v>
+        <v>-13398.092706999974</v>
       </c>
       <c r="D6" s="11">
         <f t="shared" ref="D6:E6" si="0">D5-D4</f>
-        <v>-13398.092706999974</v>
+        <v>1659.607880000025</v>
       </c>
       <c r="E6" s="12">
         <f t="shared" si="0"/>
@@ -1081,138 +1087,149 @@
       </c>
       <c r="C7" s="17" cm="1">
         <f t="array" ref="C7">(DeltaX/2)+C4</f>
-        <v>1099138.68591</v>
+        <v>950647.6443705</v>
       </c>
       <c r="D7" s="17">
         <f>(DeltaY/2)+D4</f>
-        <v>950647.6443705</v>
+        <v>1099138.68591</v>
       </c>
       <c r="E7" s="18">
         <f>(DeltaZ/2)+E4</f>
         <v>745.5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B9" s="4" t="s">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B8" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34" t="str">
+        <f>_xlfn.CONCAT(C7,",",D7)</f>
+        <v>950647.6443705,1099138.68591</v>
+      </c>
+      <c r="E8" s="34"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B10" s="28" t="s">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B11" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="23" t="s">
+      <c r="C11" s="29"/>
+      <c r="D11" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E11" s="24" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="30" t="s">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B12" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="9">
+      <c r="C12" s="31"/>
+      <c r="D12" s="9">
         <f>(DeltaX^2+DeltaY^2)^0.5</f>
         <v>13500.488380081813</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="30" t="s">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B13" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="9">
+      <c r="C13" s="31"/>
+      <c r="D13" s="9">
         <f>(Distancia2D^2+DeltaZ^2)^0.5</f>
         <v>13531.055668377248</v>
       </c>
-      <c r="E12" s="19" t="s">
+      <c r="E13" s="19" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="9">
-        <f>ATAN(DeltaY/DeltaX)</f>
-        <v>-1.4475551210427495</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B14" s="15" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="9">
+        <f>ATAN(DeltaY/DeltaX)</f>
+        <v>-0.12324120575214718</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9">
         <f>ATAN(DeltaY/DeltaX)*180/PI()</f>
-        <v>-82.938799048298577</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B15" s="30" t="s">
+        <v>-7.061200951701438</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B16" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="9">
+      <c r="C16" s="31"/>
+      <c r="D16" s="9">
         <f>ABS(ATAN(DeltaZ/Distancia2D))</f>
         <v>6.722942633598758E-2</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="E16" s="19" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="30" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B17" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="9">
+      <c r="C17" s="31"/>
+      <c r="D17" s="9">
         <f>ABS(ATAN(DeltaZ/Distancia2D)*180/PI())</f>
         <v>3.8519623881377543</v>
       </c>
-      <c r="E16" s="19" t="s">
+      <c r="E17" s="19" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="32" t="s">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B18" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="20">
-        <f>ABS(DeltaZ/SIN(D15))</f>
+      <c r="C18" s="33"/>
+      <c r="D18" s="20">
+        <f>ABS(DeltaZ/SIN(D16))</f>
         <v>13531.05566837725</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E18" s="21" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="6" t="s">
-        <v>66</v>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
+      <c r="B19" s="6" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B18:C18"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/file/table/TSIG_DistanciaEstaciones.xlsx
+++ b/file/table/TSIG_DistanciaEstaciones.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R.TSIG\file\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA31BEF-9B4E-4692-B2C2-7C24059E7973}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB610A04-324A-4070-9244-9129BFBF4E0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{19276741-97E1-4F04-AE72-7C7189CE5845}"/>
+    <workbookView xWindow="-28898" yWindow="6562" windowWidth="28996" windowHeight="15675" xr2:uid="{19276741-97E1-4F04-AE72-7C7189CE5845}"/>
   </bookViews>
   <sheets>
     <sheet name="DistanciaEstaciones" sheetId="1" r:id="rId1"/>
@@ -525,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -606,6 +606,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -616,15 +622,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -999,7 +996,7 @@
   <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -1099,15 +1096,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34" t="str">
+      <c r="D8" s="4" t="str">
         <f>_xlfn.CONCAT(C7,",",D7)</f>
         <v>950647.6443705,1099138.68591</v>
       </c>
-      <c r="E8" s="34"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="4" t="s">
@@ -1115,10 +1110,10 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="31"/>
       <c r="D11" s="23" t="s">
         <v>50</v>
       </c>
@@ -1127,10 +1122,10 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="31"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="9">
         <f>(DeltaX^2+DeltaY^2)^0.5</f>
         <v>13500.488380081813</v>
@@ -1140,10 +1135,10 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="C13" s="31"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="9">
         <f>(Distancia2D^2+DeltaZ^2)^0.5</f>
         <v>13531.055668377248</v>
@@ -1179,10 +1174,10 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="31"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="9">
         <f>ABS(ATAN(DeltaZ/Distancia2D))</f>
         <v>6.722942633598758E-2</v>
@@ -1192,10 +1187,10 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="31"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="9">
         <f>ABS(ATAN(DeltaZ/Distancia2D)*180/PI())</f>
         <v>3.8519623881377543</v>
@@ -1205,10 +1200,10 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.45">
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="33"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="20">
         <f>ABS(DeltaZ/SIN(D16))</f>
         <v>13531.05566837725</v>
